--- a/Labels.xlsx
+++ b/Labels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adval\OneDrive\Desktop\TRIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFC9C77-BCB2-451A-A06D-8B31A67342FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962EAC1D-5E38-4EE6-AC88-4F3F7E37AD59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{45465FF2-9264-4E7D-A38B-83046E50FA28}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="170">
   <si>
     <t>Importance</t>
   </si>
@@ -526,6 +526,15 @@
   </si>
   <si>
     <t>Successful</t>
+  </si>
+  <si>
+    <t>a1.9</t>
+  </si>
+  <si>
+    <t>b1.9</t>
+  </si>
+  <si>
+    <t>Forwarding to the right area while getting row ticket</t>
   </si>
 </sst>
 </file>
@@ -877,9 +886,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3423CBA-03A9-4BEF-8CE5-82753D13536A}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1030,617 +1041,631 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
         <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
         <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
         <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
         <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
         <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
         <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
         <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
         <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
         <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
         <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
         <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
         <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
         <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
         <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
         <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
         <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s">
         <v>80</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s">
         <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s">
         <v>80</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C38" t="s">
         <v>80</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s">
         <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C40" t="s">
         <v>80</v>
       </c>
       <c r="D40" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C41" t="s">
         <v>80</v>
       </c>
       <c r="D41" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
         <v>80</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="D43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C44" t="s">
         <v>132</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
         <v>132</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B46" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C46" t="s">
         <v>132</v>
       </c>
       <c r="D46" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C47" t="s">
         <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C48" t="s">
         <v>132</v>
       </c>
       <c r="D48" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C49" t="s">
         <v>132</v>
       </c>
       <c r="D49" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B50" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C50" t="s">
         <v>132</v>
       </c>
       <c r="D50" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B51" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C51" t="s">
         <v>132</v>
       </c>
       <c r="D51" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B52" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C52" t="s">
         <v>132</v>
       </c>
       <c r="D52" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C53" t="s">
         <v>132</v>
       </c>
       <c r="D53" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B54" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C54" t="s">
         <v>132</v>
       </c>
       <c r="D54" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" t="s">
         <v>166</v>
       </c>
     </row>

--- a/Labels.xlsx
+++ b/Labels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adval\OneDrive\Desktop\TRIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962EAC1D-5E38-4EE6-AC88-4F3F7E37AD59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC06082-0ABA-4D98-8260-4AF154C47337}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{45465FF2-9264-4E7D-A38B-83046E50FA28}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="225">
   <si>
     <t>Importance</t>
   </si>
@@ -535,16 +535,187 @@
   </si>
   <si>
     <t>Forwarding to the right area while getting row ticket</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>B04</t>
+  </si>
+  <si>
+    <t>B05</t>
+  </si>
+  <si>
+    <t>B06</t>
+  </si>
+  <si>
+    <t>B07</t>
+  </si>
+  <si>
+    <t>B08</t>
+  </si>
+  <si>
+    <t>B09</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>D01</t>
+  </si>
+  <si>
+    <t>D02</t>
+  </si>
+  <si>
+    <t>D03</t>
+  </si>
+  <si>
+    <t>D04</t>
+  </si>
+  <si>
+    <t>D05</t>
+  </si>
+  <si>
+    <t>D06</t>
+  </si>
+  <si>
+    <t>D07</t>
+  </si>
+  <si>
+    <t>D08</t>
+  </si>
+  <si>
+    <t>D09</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -886,20 +1057,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3423CBA-03A9-4BEF-8CE5-82753D13536A}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -912,8 +1083,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -926,8 +1100,11 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -940,8 +1117,11 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -954,8 +1134,11 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -968,8 +1151,11 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -982,8 +1168,11 @@
       <c r="D6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -996,8 +1185,11 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1010,8 +1202,11 @@
       <c r="D8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1024,8 +1219,11 @@
       <c r="D9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1038,8 +1236,11 @@
       <c r="D10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>167</v>
       </c>
@@ -1052,8 +1253,11 @@
       <c r="D11" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1066,8 +1270,11 @@
       <c r="D12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1080,8 +1287,11 @@
       <c r="D13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1094,8 +1304,11 @@
       <c r="D14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1108,8 +1321,11 @@
       <c r="D15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1122,8 +1338,11 @@
       <c r="D16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1136,8 +1355,11 @@
       <c r="D17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1150,8 +1372,11 @@
       <c r="D18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -1164,8 +1389,11 @@
       <c r="D19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -1178,8 +1406,11 @@
       <c r="D20" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -1192,8 +1423,11 @@
       <c r="D21" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -1206,8 +1440,11 @@
       <c r="D22" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1220,8 +1457,11 @@
       <c r="D23" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -1234,8 +1474,11 @@
       <c r="D24" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -1248,8 +1491,11 @@
       <c r="D25" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -1262,8 +1508,11 @@
       <c r="D26" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -1276,8 +1525,11 @@
       <c r="D27" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -1290,8 +1542,11 @@
       <c r="D28" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -1304,8 +1559,11 @@
       <c r="D29" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -1318,8 +1576,11 @@
       <c r="D30" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -1332,8 +1593,11 @@
       <c r="D31" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -1346,8 +1610,11 @@
       <c r="D32" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -1360,8 +1627,11 @@
       <c r="D33" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -1374,8 +1644,11 @@
       <c r="D34" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -1388,8 +1661,11 @@
       <c r="D35" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -1402,8 +1678,11 @@
       <c r="D36" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -1416,8 +1695,11 @@
       <c r="D37" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -1430,8 +1712,11 @@
       <c r="D38" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -1444,8 +1729,11 @@
       <c r="D39" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>118</v>
       </c>
@@ -1458,8 +1746,11 @@
       <c r="D40" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>121</v>
       </c>
@@ -1472,8 +1763,11 @@
       <c r="D41" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>124</v>
       </c>
@@ -1486,8 +1780,11 @@
       <c r="D42" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>127</v>
       </c>
@@ -1500,8 +1797,11 @@
       <c r="D43" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>130</v>
       </c>
@@ -1514,8 +1814,11 @@
       <c r="D44" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>134</v>
       </c>
@@ -1528,8 +1831,11 @@
       <c r="D45" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>137</v>
       </c>
@@ -1542,8 +1848,11 @@
       <c r="D46" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>140</v>
       </c>
@@ -1556,8 +1865,11 @@
       <c r="D47" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>143</v>
       </c>
@@ -1570,8 +1882,11 @@
       <c r="D48" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>146</v>
       </c>
@@ -1584,8 +1899,11 @@
       <c r="D49" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>149</v>
       </c>
@@ -1598,8 +1916,11 @@
       <c r="D50" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>152</v>
       </c>
@@ -1612,8 +1933,11 @@
       <c r="D51" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>155</v>
       </c>
@@ -1626,8 +1950,11 @@
       <c r="D52" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>158</v>
       </c>
@@ -1640,8 +1967,11 @@
       <c r="D53" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>161</v>
       </c>
@@ -1654,8 +1984,11 @@
       <c r="D54" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>164</v>
       </c>
@@ -1668,8 +2001,12 @@
       <c r="D55" t="s">
         <v>166</v>
       </c>
+      <c r="E55" t="s">
+        <v>224</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>